--- a/Experiments/Results/p_values.xlsx
+++ b/Experiments/Results/p_values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jllav\IdeaProjects\TFM\Experiments\Latex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jllav\IdeaProjects\TFM\Experiments\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED294C7-D5AF-4049-BD1C-34A1F794647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14019DDA-4766-40E8-A555-FE793C6B3A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{993279F4-83D5-46CC-902A-036932E26A30}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C289BE-4F72-4A2E-85D2-6EE5CFDFE183}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3267,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="4">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -3290,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D565867-3D98-42B4-873C-805F9001EE82}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:U50"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5965,7 +5965,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="4">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -5993,7 +5993,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8827,7 +8827,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="4">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
